--- a/日本版コアインボイス/適格請求書2021-01-24.xlsx
+++ b/日本版コアインボイス/適格請求書2021-01-24.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA6E40-16E0-48D6-A979-E9B0DDF2911F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E3AB6B-CC39-BA4C-B77B-E38AE2BFCB96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="60" windowWidth="23085" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="60" windowWidth="23080" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="適格返還請求書対応" sheetId="3" r:id="rId1"/>
+    <sheet name="適格(返還)請求書" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="185">
   <si>
     <t>請求書</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>[15]</t>
-  </si>
-  <si>
-    <t>[19][20]</t>
   </si>
   <si>
     <t>鉛筆（１ダース入り）</t>
@@ -331,13 +328,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>消費税</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2020-12-12</t>
   </si>
   <si>
@@ -371,10 +361,6 @@
   </si>
   <si>
     <t>[7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[8]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -439,19 +425,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「12」</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>文書全体の控除総合計金額=[7]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>[16]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[13]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -601,9 +579,6 @@
     <t>jbt-119</t>
   </si>
   <si>
-    <t>jbt-120</t>
-  </si>
-  <si>
     <t>jbt-265</t>
   </si>
   <si>
@@ -701,6 +676,58 @@
   </si>
   <si>
     <t>箱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jbt-118</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額は</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jbt-266</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>税計算方式</t>
+    <rPh sb="0" eb="5">
+      <t>ゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[33]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[33]税込み</t>
+    <rPh sb="4" eb="6">
+      <t>ゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1 （内税）</t>
+    <rPh sb="3" eb="5">
+      <t>ウチゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費税[13]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費税[8]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費税[12]</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -851,7 +878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -976,17 +1003,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1016,17 +1032,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -1047,19 +1052,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1286,34 +1278,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1428,6 +1396,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1435,23 +1492,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1463,16 +1520,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1484,397 +1541,415 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="6" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="6" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="6" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="9" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2096,41 +2171,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U1003"/>
+  <dimension ref="A1:U1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="6" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="6" customWidth="1"/>
-    <col min="12" max="12" width="2.125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="5.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.1640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="2" style="6" customWidth="1"/>
-    <col min="18" max="18" width="33.125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="6" customWidth="1"/>
-    <col min="20" max="21" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="8.125" style="6" customWidth="1"/>
-    <col min="25" max="16384" width="12.625" style="6"/>
+    <col min="18" max="18" width="33.1640625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" style="6" customWidth="1"/>
+    <col min="20" max="21" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="8.1640625" style="6" customWidth="1"/>
+    <col min="25" max="16384" width="12.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25">
-      <c r="A1" s="101"/>
+    <row r="1" spans="1:19" ht="17">
+      <c r="A1" s="100"/>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2154,7 +2229,7 @@
       <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="102"/>
+      <c r="A2" s="101"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2171,7 +2246,7 @@
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>1</v>
@@ -2187,8 +2262,8 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="102" t="s">
-        <v>92</v>
+      <c r="A3" s="101" t="s">
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2206,7 +2281,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="17"/>
       <c r="N3" s="18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>3</v>
@@ -2221,7 +2296,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="102"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="22"/>
@@ -2234,7 +2309,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="17"/>
       <c r="N4" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O4" s="24" t="s">
         <v>8</v>
@@ -2250,56 +2325,58 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="102"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="29"/>
-      <c r="N5" s="110" t="s">
-        <v>166</v>
-      </c>
-      <c r="O5" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="112" t="s">
+      <c r="N5" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="113"/>
+      <c r="Q5" s="111"/>
       <c r="R5" s="61"/>
-      <c r="S5" s="114"/>
-    </row>
-    <row r="6" spans="1:19" ht="14.25" thickBot="1">
-      <c r="A6" s="102"/>
+      <c r="S5" s="112"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1">
+      <c r="A6" s="101"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" s="29"/>
       <c r="N6" s="18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O6" s="19" t="s">
         <v>10</v>
@@ -2313,46 +2390,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="102"/>
+    <row r="7" spans="1:19" ht="15">
+      <c r="A7" s="101"/>
       <c r="B7" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36" t="s">
         <v>107</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>110</v>
       </c>
       <c r="L7" s="37"/>
       <c r="N7" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R7" s="27"/>
       <c r="S7" s="39">
@@ -2361,7 +2436,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="102"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="40">
         <v>1</v>
       </c>
@@ -2369,10 +2444,10 @@
         <v>44177</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8" s="42">
         <f>1200*1.1</f>
@@ -2382,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -2392,58 +2467,58 @@
       </c>
       <c r="L8" s="44"/>
       <c r="M8" s="45"/>
-      <c r="N8" s="110" t="s">
-        <v>167</v>
-      </c>
-      <c r="O8" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" s="112" t="s">
+      <c r="N8" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="O8" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="112"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="101"/>
+      <c r="B9" s="117">
+        <v>2</v>
+      </c>
+      <c r="C9" s="118">
+        <v>44177</v>
+      </c>
+      <c r="D9" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="114"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="102"/>
-      <c r="B9" s="121">
-        <v>2</v>
-      </c>
-      <c r="C9" s="122">
-        <v>44177</v>
-      </c>
-      <c r="D9" s="123" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="123" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="123">
+      <c r="E9" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="119">
         <f>500*1.1</f>
         <v>550</v>
       </c>
-      <c r="G9" s="124">
+      <c r="G9" s="120">
         <v>1</v>
       </c>
-      <c r="H9" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="125">
+      <c r="H9" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="121">
         <v>550</v>
       </c>
       <c r="L9" s="44"/>
       <c r="N9" s="47" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P9" s="49"/>
       <c r="Q9" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R9" s="50"/>
       <c r="S9" s="51" t="str">
@@ -2452,70 +2527,69 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="102"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="89"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="120">
+        <v>113</v>
+      </c>
+      <c r="K10" s="116">
         <f>SUM(K8)+K9</f>
         <v>13750</v>
       </c>
       <c r="L10" s="44"/>
-      <c r="N10" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="O10" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="112" t="s">
-        <v>24</v>
+      <c r="N10" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="110" t="s">
+        <v>23</v>
       </c>
       <c r="Q10" s="61"/>
       <c r="R10" s="61"/>
-      <c r="S10" s="116"/>
+      <c r="S10" s="114"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="102"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="91"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="E11" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F11" s="92"/>
       <c r="G11" s="27"/>
-      <c r="J11" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" s="98">
+      <c r="H11" s="27"/>
+      <c r="I11" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="145">
         <f>K10*0.1/1.1</f>
         <v>1250</v>
       </c>
+      <c r="K11" s="17"/>
       <c r="L11" s="44"/>
       <c r="M11" s="45"/>
       <c r="N11" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P11" s="20"/>
       <c r="Q11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="30">
@@ -2523,9 +2597,9 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="102"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2535,66 +2609,66 @@
       <c r="H12" s="53"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="139" t="s">
-        <v>175</v>
+      <c r="K12" s="146" t="s">
+        <v>169</v>
       </c>
       <c r="L12" s="44"/>
       <c r="N12" s="18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P12" s="20"/>
       <c r="Q12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="102"/>
-      <c r="B13" s="121">
+      <c r="A13" s="101"/>
+      <c r="B13" s="117">
         <v>3</v>
       </c>
-      <c r="C13" s="122">
+      <c r="C13" s="118">
         <v>44177</v>
       </c>
-      <c r="D13" s="123" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="123" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="123">
+      <c r="D13" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="119">
         <f>-200*1.1</f>
         <v>-220.00000000000003</v>
       </c>
-      <c r="G13" s="124">
+      <c r="G13" s="120">
         <f>G8</f>
         <v>10</v>
       </c>
-      <c r="H13" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="125">
+      <c r="H13" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="147">
         <f>F13*G13</f>
         <v>-2200.0000000000005</v>
       </c>
       <c r="L13" s="44"/>
       <c r="N13" s="18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="30">
@@ -2602,73 +2676,71 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="102"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="93"/>
       <c r="C14" s="46"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="126">
+        <v>97</v>
+      </c>
+      <c r="K14" s="148">
         <f>K13</f>
         <v>-2200.0000000000005</v>
       </c>
       <c r="L14" s="44"/>
       <c r="N14" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P14" s="20"/>
       <c r="Q14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="102"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="93"/>
       <c r="C15" s="46"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="127">
+      <c r="I15" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="149">
         <f>0.1*K14/1.1</f>
         <v>-200.00000000000003</v>
       </c>
+      <c r="K15" s="17"/>
       <c r="L15" s="44"/>
       <c r="N15" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P15" s="20"/>
       <c r="Q15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="30">
@@ -2676,88 +2748,86 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="102"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="105"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="104">
+        <v>100</v>
+      </c>
+      <c r="K16" s="150">
         <f>SUM(K10,K14)</f>
         <v>11550</v>
       </c>
       <c r="L16" s="17"/>
       <c r="N16" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P16" s="20"/>
       <c r="Q16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.25" thickBot="1">
-      <c r="A17" s="102"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1">
+      <c r="A17" s="101"/>
       <c r="B17" s="96"/>
       <c r="C17" s="54"/>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="128">
-        <f>K11+K15</f>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" s="151">
+        <f>J11+J15</f>
         <v>1050</v>
       </c>
+      <c r="K17" s="152"/>
       <c r="L17" s="17"/>
-      <c r="N17" s="23" t="s">
-        <v>148</v>
+      <c r="N17" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="39">
+        <v>118</v>
+      </c>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="30">
         <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="102"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="55">
         <v>44227</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2766,30 +2836,32 @@
       <c r="J18" s="5"/>
       <c r="K18" s="56"/>
       <c r="L18" s="57"/>
-      <c r="N18" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="O18" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="119"/>
+      <c r="N18" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" s="141" t="s">
+        <v>179</v>
+      </c>
+      <c r="P18" s="143" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="144" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="102"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
@@ -2799,33 +2871,30 @@
       <c r="J19" s="5"/>
       <c r="K19" s="42"/>
       <c r="L19" s="44"/>
-      <c r="N19" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="O19" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="63">
-        <f>K14</f>
-        <v>-2200.0000000000005</v>
-      </c>
+      <c r="N19" s="139" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="112"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="102"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
@@ -2836,32 +2905,32 @@
       <c r="K20" s="56"/>
       <c r="L20" s="57"/>
       <c r="N20" s="62" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="O20" s="62" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R20" s="5"/>
-      <c r="S20" s="64">
-        <f>K15</f>
-        <v>-200.00000000000003</v>
+      <c r="S20" s="63">
+        <f>K14</f>
+        <v>-2200.0000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="102"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
@@ -2872,28 +2941,29 @@
       <c r="K21" s="56"/>
       <c r="L21" s="57"/>
       <c r="N21" s="62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="R21" s="5"/>
-      <c r="S21" s="140" t="s">
-        <v>65</v>
+      <c r="S21" s="64">
+        <f>J15</f>
+        <v>-200.00000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="102"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="5"/>
@@ -2903,22 +2973,22 @@
       <c r="J22" s="5"/>
       <c r="K22" s="56"/>
       <c r="L22" s="57"/>
-      <c r="N22" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="O22" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="R22" s="50"/>
-      <c r="S22" s="70">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.25" thickBot="1">
+      <c r="N22" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1">
       <c r="A23" s="90"/>
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
@@ -2931,54 +3001,53 @@
       <c r="J23" s="58"/>
       <c r="K23" s="59"/>
       <c r="L23" s="60"/>
-      <c r="N23" s="110" t="s">
-        <v>168</v>
-      </c>
-      <c r="O23" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="P23" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="114"/>
+      <c r="N23" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" s="50"/>
+      <c r="S23" s="70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24" spans="1:21">
       <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="71">
+      <c r="Q24" s="111"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="112"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="N25" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" s="5"/>
+      <c r="S25" s="71">
         <f>K16</f>
         <v>11550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="N25" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="63">
-        <f>S19</f>
-        <v>-2200.0000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2994,22 +3063,21 @@
       <c r="J26" s="67"/>
       <c r="K26" s="67"/>
       <c r="L26" s="65"/>
-      <c r="N26" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="O26" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="72">
-        <f>K17</f>
-        <v>1050</v>
-      </c>
-      <c r="T26" s="5"/>
+      <c r="N26" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="63">
+        <f>S20</f>
+        <v>-2200.0000000000005</v>
+      </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="38"/>
@@ -3024,19 +3092,22 @@
       <c r="J27" s="66"/>
       <c r="K27" s="67"/>
       <c r="L27" s="67"/>
-      <c r="N27" s="110" t="s">
-        <v>169</v>
-      </c>
-      <c r="O27" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="P27" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="142"/>
+      <c r="N27" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O27" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="27"/>
+      <c r="S27" s="72">
+        <f>J17</f>
+        <v>1050</v>
+      </c>
+      <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="38"/>
@@ -3048,57 +3119,53 @@
       <c r="G28" s="65"/>
       <c r="H28" s="66"/>
       <c r="I28" s="67"/>
-      <c r="J28" s="100"/>
+      <c r="J28" s="99"/>
       <c r="K28" s="67"/>
       <c r="L28" s="65"/>
       <c r="M28" s="45"/>
-      <c r="N28" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="73">
-        <f>K11</f>
-        <v>1250</v>
-      </c>
-      <c r="T28" s="74"/>
+      <c r="N28" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="O28" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="134"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="38"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
       <c r="L29" s="67"/>
       <c r="N29" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="P29" s="20"/>
       <c r="Q29" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R29" s="5"/>
-      <c r="S29" s="75">
-        <v>0.1</v>
-      </c>
-      <c r="T29" s="76">
-        <v>0.08</v>
-      </c>
+      <c r="S29" s="73">
+        <f>J11</f>
+        <v>1250</v>
+      </c>
+      <c r="T29" s="74"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="84"/>
@@ -3114,21 +3181,21 @@
       <c r="K30" s="65"/>
       <c r="L30" s="65"/>
       <c r="N30" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="P30" s="20"/>
       <c r="Q30" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R30" s="5"/>
-      <c r="S30" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="T30" s="95" t="s">
-        <v>66</v>
+      <c r="S30" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="T30" s="76">
+        <v>0.08</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -3145,23 +3212,23 @@
       <c r="K31" s="65"/>
       <c r="L31" s="65"/>
       <c r="M31" s="45"/>
-      <c r="N31" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="O31" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="R31" s="27"/>
-      <c r="S31" s="77">
-        <f>K10</f>
-        <v>13750</v>
-      </c>
-      <c r="T31" s="78"/>
-      <c r="U31" s="5"/>
+      <c r="N31" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="T31" s="95" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="84"/>
@@ -3176,20 +3243,23 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
       <c r="L32" s="65"/>
-      <c r="N32" s="110" t="s">
-        <v>170</v>
-      </c>
-      <c r="O32" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="P32" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="142"/>
+      <c r="N32" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="O32" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" s="27"/>
+      <c r="S32" s="77">
+        <f>K10</f>
+        <v>13750</v>
+      </c>
+      <c r="T32" s="78"/>
+      <c r="U32" s="5"/>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="84"/>
@@ -3204,27 +3274,20 @@
       <c r="J33" s="65"/>
       <c r="K33" s="65"/>
       <c r="L33" s="65"/>
-      <c r="N33" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="143">
-        <f>B8</f>
-        <v>1</v>
-      </c>
-      <c r="T33" s="38">
-        <v>2</v>
-      </c>
-      <c r="U33" s="144">
-        <v>3</v>
-      </c>
+      <c r="N33" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="125"/>
+      <c r="U33" s="134"/>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="84"/>
@@ -3240,24 +3303,25 @@
       <c r="K34" s="65"/>
       <c r="L34" s="65"/>
       <c r="N34" s="18" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="P34" s="20"/>
       <c r="Q34" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R34" s="5"/>
-      <c r="S34" s="145" t="s">
-        <v>91</v>
-      </c>
-      <c r="T34" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="U34" s="144" t="s">
-        <v>90</v>
+      <c r="S34" s="135">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="T34" s="38">
+        <v>2</v>
+      </c>
+      <c r="U34" s="136">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -3275,26 +3339,27 @@
       <c r="L35" s="65"/>
       <c r="M35" s="45"/>
       <c r="N35" s="18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P35" s="20"/>
       <c r="Q35" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R35" s="5"/>
-      <c r="S35" s="30">
-        <f>G8</f>
-        <v>10</v>
-      </c>
-      <c r="T35" s="5">
-        <v>1</v>
-      </c>
-      <c r="U35" s="133"/>
-    </row>
-    <row r="36" spans="1:21" ht="17.25">
+      <c r="S35" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="T35" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="U35" s="136" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="17">
       <c r="A36" s="84"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -3308,23 +3373,24 @@
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="N36" s="18" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P36" s="20"/>
       <c r="Q36" s="6" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="R36" s="5"/>
-      <c r="S36" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="U36" s="133"/>
+      <c r="S36" s="30">
+        <f>G8</f>
+        <v>10</v>
+      </c>
+      <c r="T36" s="5">
+        <v>1</v>
+      </c>
+      <c r="U36" s="126"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="84"/>
@@ -3340,25 +3406,23 @@
       <c r="K37" s="80"/>
       <c r="L37" s="80"/>
       <c r="N37" s="18" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="P37" s="20"/>
       <c r="Q37" s="6" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="R37" s="5"/>
-      <c r="S37" s="82">
-        <f>K8</f>
-        <v>13200</v>
-      </c>
-      <c r="T37" s="42">
-        <f>K9</f>
-        <v>550</v>
-      </c>
-      <c r="U37" s="133"/>
+      <c r="S37" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="U37" s="126"/>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="84"/>
@@ -3373,20 +3437,26 @@
       <c r="J38" s="66"/>
       <c r="K38" s="65"/>
       <c r="L38" s="65"/>
-      <c r="N38" s="129" t="s">
-        <v>171</v>
-      </c>
-      <c r="O38" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="R38" s="132"/>
-      <c r="S38" s="115"/>
-      <c r="T38" s="132"/>
-      <c r="U38" s="115"/>
+      <c r="N38" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="82">
+        <f>K8</f>
+        <v>13200</v>
+      </c>
+      <c r="T38" s="42">
+        <f>K9</f>
+        <v>550</v>
+      </c>
+      <c r="U38" s="126"/>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="84"/>
@@ -3401,26 +3471,20 @@
       <c r="J39" s="66"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
-      <c r="N39" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="O39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S39" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="T39" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="U39" s="94" t="s">
-        <v>65</v>
-      </c>
+      <c r="N39" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="O39" s="123" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" s="124"/>
+      <c r="Q39" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="R39" s="125"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="125"/>
+      <c r="U39" s="113"/>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="84"/>
@@ -3435,25 +3499,25 @@
       <c r="J40" s="66"/>
       <c r="K40" s="66"/>
       <c r="L40" s="66"/>
-      <c r="N40" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="O40" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50" t="s">
+      <c r="N40" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S40" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="T40" s="146">
-        <v>0.1</v>
-      </c>
-      <c r="U40" s="70">
-        <v>0.1</v>
+      <c r="S40" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="T40" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="U40" s="94" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3469,20 +3533,26 @@
       <c r="J41" s="66"/>
       <c r="K41" s="97"/>
       <c r="L41" s="66"/>
-      <c r="N41" s="110" t="s">
-        <v>172</v>
-      </c>
-      <c r="O41" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="R41" s="61"/>
-      <c r="S41" s="114"/>
-      <c r="T41" s="61"/>
-      <c r="U41" s="133"/>
+      <c r="N41" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="O41" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="T41" s="138">
+        <v>0.1</v>
+      </c>
+      <c r="U41" s="70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="84"/>
@@ -3497,25 +3567,20 @@
       <c r="J42" s="84"/>
       <c r="K42" s="84"/>
       <c r="L42" s="84"/>
-      <c r="N42" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="P42" s="20"/>
-      <c r="R42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S42" s="30" t="str">
-        <f>D8</f>
-        <v>鉛筆（１ダース入り）</v>
-      </c>
-      <c r="T42" s="42" t="str">
-        <f>D9</f>
-        <v>送料</v>
-      </c>
-      <c r="U42" s="133"/>
+      <c r="N42" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="O42" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" s="61"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="126"/>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="84"/>
@@ -3531,24 +3596,24 @@
       <c r="K43" s="67"/>
       <c r="L43" s="67"/>
       <c r="N43" s="18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O43" s="19" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="P43" s="20"/>
       <c r="R43" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="S43" s="82">
-        <f>F8</f>
-        <v>1320</v>
-      </c>
-      <c r="T43" s="42">
-        <f>F9</f>
-        <v>550</v>
-      </c>
-      <c r="U43" s="133"/>
+        <v>56</v>
+      </c>
+      <c r="S43" s="30" t="str">
+        <f>D8</f>
+        <v>鉛筆（１ダース入り）</v>
+      </c>
+      <c r="T43" s="42" t="str">
+        <f>D9</f>
+        <v>送料</v>
+      </c>
+      <c r="U43" s="126"/>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="84"/>
@@ -3564,23 +3629,24 @@
       <c r="K44" s="67"/>
       <c r="L44" s="67"/>
       <c r="N44" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="O44" s="62" t="s">
-        <v>98</v>
+        <v>158</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="P44" s="20"/>
-      <c r="Q44" s="5"/>
       <c r="R44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S44" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="T44" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="U44" s="133"/>
+        <v>110</v>
+      </c>
+      <c r="S44" s="82">
+        <f>F8</f>
+        <v>1320</v>
+      </c>
+      <c r="T44" s="42">
+        <f>F9</f>
+        <v>550</v>
+      </c>
+      <c r="U44" s="126"/>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="84"/>
@@ -3595,18 +3661,24 @@
       <c r="J45" s="67"/>
       <c r="K45" s="67"/>
       <c r="L45" s="67"/>
-      <c r="N45" s="129" t="s">
+      <c r="N45" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O45" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="T45" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="O45" s="130"/>
-      <c r="P45" s="131"/>
-      <c r="Q45" s="132" t="s">
-        <v>134</v>
-      </c>
-      <c r="R45" s="132"/>
-      <c r="S45" s="134"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="115"/>
+      <c r="U45" s="126"/>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="84"/>
@@ -3621,23 +3693,18 @@
       <c r="J46" s="65"/>
       <c r="K46" s="65"/>
       <c r="L46" s="65"/>
-      <c r="N46" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="O46" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S46" s="133"/>
-      <c r="T46" s="136"/>
-      <c r="U46" s="82">
-        <f>K14</f>
-        <v>-2200.0000000000005</v>
-      </c>
+      <c r="N46" s="122" t="s">
+        <v>167</v>
+      </c>
+      <c r="O46" s="123"/>
+      <c r="P46" s="124"/>
+      <c r="Q46" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="R46" s="125"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="128"/>
+      <c r="U46" s="113"/>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="84"/>
@@ -3652,20 +3719,22 @@
       <c r="J47" s="84"/>
       <c r="K47" s="67"/>
       <c r="L47" s="67"/>
-      <c r="N47" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="O47" s="48"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="S47" s="137"/>
-      <c r="T47" s="138"/>
-      <c r="U47" s="51" t="str">
-        <f>B12</f>
-        <v>値引き</v>
+      <c r="N47" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O47" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S47" s="126"/>
+      <c r="T47" s="129"/>
+      <c r="U47" s="82">
+        <f>K14</f>
+        <v>-2200.0000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3681,8 +3750,21 @@
       <c r="J48" s="65"/>
       <c r="K48" s="67"/>
       <c r="L48" s="67"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="8"/>
+      <c r="N48" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="O48" s="48"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="S48" s="130"/>
+      <c r="T48" s="131"/>
+      <c r="U48" s="51" t="str">
+        <f>B12</f>
+        <v>値引き</v>
+      </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="84"/>
@@ -3697,6 +3779,7 @@
       <c r="J49" s="67"/>
       <c r="K49" s="67"/>
       <c r="L49" s="65"/>
+      <c r="N49" s="6"/>
       <c r="O49" s="8"/>
     </row>
     <row r="50" spans="1:15">
@@ -3866,7 +3949,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="B61" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O61" s="8"/>
     </row>
@@ -6695,6 +6778,9 @@
     </row>
     <row r="1003" spans="15:15">
       <c r="O1003" s="8"/>
+    </row>
+    <row r="1004" spans="15:15">
+      <c r="O1004" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
